--- a/dataprocessing/test2.xlsx
+++ b/dataprocessing/test2.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\small\Desktop\VAMAP\Team16_Development\dataprocessing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5C60B73D-400F-40D9-B479-A2B36DB70F35}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F8E3EC5-2B1E-49F1-9BD1-164ECF3683E6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10932" xr2:uid="{D02863B5-8E0E-4777-9467-E13BE1258792}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10932" activeTab="2" xr2:uid="{D02863B5-8E0E-4777-9467-E13BE1258792}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="3">
   <si>
     <t>x</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -407,8 +409,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9292E24D-DFD4-4470-9763-5C3B1C2D2351}">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:C8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="A1:C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -506,4 +508,212 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64EE2917-D555-4FE7-B46A-84BB0C43FB9F}">
+  <dimension ref="A1:C8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2">
+        <v>23</v>
+      </c>
+      <c r="B2">
+        <v>24</v>
+      </c>
+      <c r="C2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3">
+        <v>23</v>
+      </c>
+      <c r="B3">
+        <v>24</v>
+      </c>
+      <c r="C3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A4">
+        <v>23</v>
+      </c>
+      <c r="B4">
+        <v>24</v>
+      </c>
+      <c r="C4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A5">
+        <v>23</v>
+      </c>
+      <c r="B5">
+        <v>24</v>
+      </c>
+      <c r="C5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A6">
+        <v>23</v>
+      </c>
+      <c r="B6">
+        <v>24</v>
+      </c>
+      <c r="C6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A7">
+        <v>23</v>
+      </c>
+      <c r="B7">
+        <v>24</v>
+      </c>
+      <c r="C7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A8">
+        <v>23</v>
+      </c>
+      <c r="B8">
+        <v>24</v>
+      </c>
+      <c r="C8">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3C5E4B5-BAD0-4355-A278-26727D6F8BEF}">
+  <dimension ref="A1:C8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2">
+        <v>23</v>
+      </c>
+      <c r="B2">
+        <v>24</v>
+      </c>
+      <c r="C2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3">
+        <v>23</v>
+      </c>
+      <c r="B3">
+        <v>24</v>
+      </c>
+      <c r="C3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A4">
+        <v>23</v>
+      </c>
+      <c r="B4">
+        <v>24</v>
+      </c>
+      <c r="C4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A5">
+        <v>23</v>
+      </c>
+      <c r="B5">
+        <v>24</v>
+      </c>
+      <c r="C5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A6">
+        <v>23</v>
+      </c>
+      <c r="B6">
+        <v>24</v>
+      </c>
+      <c r="C6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A7">
+        <v>23</v>
+      </c>
+      <c r="B7">
+        <v>24</v>
+      </c>
+      <c r="C7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A8">
+        <v>23</v>
+      </c>
+      <c r="B8">
+        <v>24</v>
+      </c>
+      <c r="C8">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>